--- a/mengyuan_gannt.xlsx
+++ b/mengyuan_gannt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhume\Documents\GitHub\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMY-Surface\Documents\GitHub\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -59,31 +59,91 @@
     <t>Cross-Site Request Forgery protecction (Mengyuan Zhu)</t>
   </si>
   <si>
-    <t>SSL/HTTPs for sensitive pages (Mengyuan Zhu)</t>
-  </si>
-  <si>
     <t>favicon.ico  (Mengyuan Zhu)</t>
   </si>
   <si>
-    <t>Payment/Stripe (Mengyuan Zhu)</t>
-  </si>
-  <si>
-    <t>sitemap.xml (Mengyuan Zhu)</t>
-  </si>
-  <si>
     <t>gzip/deflate on pages (Mengyuan Zhu)</t>
   </si>
   <si>
     <t>NTH</t>
   </si>
   <si>
-    <t>Pagespeed/insight optimization (Mengyuan Zhu)</t>
-  </si>
-  <si>
-    <t>Mobile optimization (Mengyuan Zhu)</t>
-  </si>
-  <si>
-    <t>User history analytics (Mengyuan Zhu)</t>
+    <t>Middleware (Mengyuan Zhu)</t>
+  </si>
+  <si>
+    <t>Item library  (Mengyuan Zhu)</t>
+  </si>
+  <si>
+    <t>Image resources  (Mengyuan Zhu)</t>
+  </si>
+  <si>
+    <t>Items registration (Mengyuan Zhu)</t>
+  </si>
+  <si>
+    <t>Buyer/Seller property (Mengyuan Zhu)</t>
+  </si>
+  <si>
+    <t>Mobile optimization (Darius Jones)</t>
+  </si>
+  <si>
+    <t>Item showing page (Shimari Southwell)</t>
+  </si>
+  <si>
+    <t>Controller (Jibraan Mubeen)</t>
+  </si>
+  <si>
+    <t>View page like help page (Darius Jones)</t>
+  </si>
+  <si>
+    <t>User authentication (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>User database (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>User login (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>User history analytics (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>User profile (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>Homepage beautify (Shimari Southwell)</t>
+  </si>
+  <si>
+    <t>Button beautify (Shimari Southwell)</t>
+  </si>
+  <si>
+    <t>Layout beautify (Shimari Southwell)</t>
+  </si>
+  <si>
+    <t>Forms beautify  (Shimari Southwell)</t>
+  </si>
+  <si>
+    <t>User registration (Ishmeet Tuteja)</t>
+  </si>
+  <si>
+    <t>Administrator control panel (Jibraan Mubeen)</t>
+  </si>
+  <si>
+    <t>Big data test (Jibraan Mubeen)</t>
+  </si>
+  <si>
+    <t>Items search (Darius Jones)</t>
+  </si>
+  <si>
+    <t>SSL/HTTPs for sensitive pages (Darius Jones)</t>
+  </si>
+  <si>
+    <t>Payment/Stripe (Darius Jones)</t>
+  </si>
+  <si>
+    <t>sitemap.xml (Jibraan Mubeen)</t>
+  </si>
+  <si>
+    <t>Pagespeed/insight optimization (Jibraan Mubeen)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -186,8 +246,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,7 +328,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4890148327575326"/>
+          <c:y val="0.18213307054457448"/>
+          <c:w val="0.46973126678316984"/>
+          <c:h val="0.71032119672377092"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -288,9 +370,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>Cross-Site Request Forgery protecction (Mengyuan Zhu)</c:v>
                 </c:pt>
@@ -298,29 +380,98 @@
                   <c:v>User password bcrypt/scrypt  (Mengyuan Zhu)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSL/HTTPs for sensitive pages (Mengyuan Zhu)</c:v>
+                  <c:v>SSL/HTTPs for sensitive pages (Darius Jones)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>favicon.ico  (Mengyuan Zhu)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Payment/Stripe (Mengyuan Zhu)</c:v>
+                  <c:v>Payment/Stripe (Darius Jones)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>sitemap.xml (Mengyuan Zhu)</c:v>
+                  <c:v>sitemap.xml (Jibraan Mubeen)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>gzip/deflate on pages (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pagespeed/insight optimization (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mobile optimization (Darius Jones)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Item showing page (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Controller (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Middleware (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>View page like help page (Darius Jones)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>User authentication (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>User database (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>User login (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>User history analytics (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>User profile (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Buyer/Seller property (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Item library  (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Homepage beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Button beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Layout beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Forms beautify  (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Image resources  (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Items registration (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>User registration (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Administrator control panel (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Big data test (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Items search (Darius Jones)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -328,19 +479,88 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,9 +595,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>Cross-Site Request Forgery protecction (Mengyuan Zhu)</c:v>
                 </c:pt>
@@ -385,29 +605,98 @@
                   <c:v>User password bcrypt/scrypt  (Mengyuan Zhu)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSL/HTTPs for sensitive pages (Mengyuan Zhu)</c:v>
+                  <c:v>SSL/HTTPs for sensitive pages (Darius Jones)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>favicon.ico  (Mengyuan Zhu)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Payment/Stripe (Mengyuan Zhu)</c:v>
+                  <c:v>Payment/Stripe (Darius Jones)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>sitemap.xml (Mengyuan Zhu)</c:v>
+                  <c:v>sitemap.xml (Jibraan Mubeen)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>gzip/deflate on pages (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pagespeed/insight optimization (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mobile optimization (Darius Jones)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Item showing page (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Controller (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Middleware (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>View page like help page (Darius Jones)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>User authentication (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>User database (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>User login (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>User history analytics (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>User profile (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Buyer/Seller property (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Item library  (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Homepage beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Button beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Layout beautify (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Forms beautify  (Shimari Southwell)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Image resources  (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Items registration (Mengyuan Zhu)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>User registration (Ishmeet Tuteja)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Administrator control panel (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Big data test (Jibraan Mubeen)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Items search (Darius Jones)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:f>Sheet1!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -421,12 +710,81 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -443,11 +801,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-536964976"/>
-        <c:axId val="-536968784"/>
+        <c:axId val="124867208"/>
+        <c:axId val="124866816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-536964976"/>
+        <c:axId val="124867208"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -490,7 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536968784"/>
+        <c:crossAx val="124866816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-536968784"/>
+        <c:axId val="124866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536964976"/>
+        <c:crossAx val="124867208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1543,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1471,19 +1829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,11 +1852,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1507,19 +1866,19 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1529,17 +1888,17 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1549,33 +1908,33 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1583,69 +1942,69 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
@@ -1653,23 +2012,429 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/mengyuan_gannt.xlsx
+++ b/mengyuan_gannt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMY-Surface\Documents\GitHub\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhume\Documents\GitHub\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -506,31 +506,31 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -545,13 +545,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
@@ -801,11 +801,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="124867208"/>
-        <c:axId val="124866816"/>
+        <c:axId val="-38848736"/>
+        <c:axId val="-38848192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124867208"/>
+        <c:axId val="-38848736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -848,7 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124866816"/>
+        <c:crossAx val="-38848192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124866816"/>
+        <c:axId val="-38848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124867208"/>
+        <c:crossAx val="-38848736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,7 +956,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1535,16 +1537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144808</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1831,18 +1833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1878,12 +1880,12 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1898,7 +1900,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2044,12 +2046,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -2058,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2072,12 +2074,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -2086,12 +2088,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -2100,12 +2102,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -2114,12 +2116,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -2128,12 +2130,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -2142,12 +2144,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -2156,12 +2158,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -2170,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2226,12 +2228,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -2240,12 +2242,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -2254,12 +2256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -2268,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2296,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -2310,127 +2312,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
